--- a/Test Data/Verify Voltage Drop Calculation on adding devices in Multiple loops.xlsx
+++ b/Test Data/Verify Voltage Drop Calculation on adding devices in Multiple loops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6065AE0-6C09-43DC-B6F5-123EECD4B5C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40FBEFB-046E-4A97-9A9A-AD7884A4CDE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9024" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="41">
   <si>
     <t xml:space="preserve">Note: Do not change the column/rows index </t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>verifyVoltageDropCalculation</t>
+  </si>
+  <si>
+    <t>Volt Drop (V)</t>
+  </si>
+  <si>
+    <t>Volt Drop (worst case)</t>
+  </si>
+  <si>
+    <t>Volt drop Loading Details Name</t>
+  </si>
+  <si>
+    <t>Volt drop worst case Loading Details Name</t>
   </si>
 </sst>
 </file>
@@ -241,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -250,10 +262,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -272,6 +280,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,7 +601,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H5" sqref="H5:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,93 +617,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="G1" s="20" t="s">
+      <c r="C1" s="11"/>
+      <c r="G1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="11"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="E3" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9" t="s">
+      <c r="E4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -707,14 +728,20 @@
       <c r="D6" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>287</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>0.66</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>1.26</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -738,6 +765,12 @@
       </c>
       <c r="G7" s="1">
         <v>1.34</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +787,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,90 +803,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="G1" s="20" t="s">
+      <c r="C1" s="11"/>
+      <c r="G1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="11"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="E3" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9" t="s">
+      <c r="E4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>3</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -877,6 +922,12 @@
       </c>
       <c r="G6" s="1">
         <v>1.44</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -884,6 +935,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -892,7 +944,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B3"/>
+      <selection activeCell="H5" sqref="H5:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,90 +960,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="G1" s="20" t="s">
+      <c r="C1" s="11"/>
+      <c r="G1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="11"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="E3" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9" t="s">
+      <c r="E4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>3</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1016,6 +1080,12 @@
       <c r="G6" s="1">
         <v>0.08</v>
       </c>
+      <c r="H6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -1038,6 +1108,12 @@
       </c>
       <c r="G7" s="1">
         <v>0.16</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1045,6 +1121,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1053,7 +1130,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H5" sqref="H5:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1069,90 +1146,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="G1" s="20" t="s">
+      <c r="C1" s="11"/>
+      <c r="G1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="11"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="E3" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9" t="s">
+      <c r="E4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>3</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1177,6 +1266,12 @@
       <c r="G6" s="1">
         <v>0.06</v>
       </c>
+      <c r="H6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -1199,6 +1294,12 @@
       </c>
       <c r="G7" s="1">
         <v>0.16</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1206,5 +1307,6 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Data/Verify Voltage Drop Calculation on adding devices in Multiple loops.xlsx
+++ b/Test Data/Verify Voltage Drop Calculation on adding devices in Multiple loops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40FBEFB-046E-4A97-9A9A-AD7884A4CDE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A126EFD-5769-451E-8D51-72CE5697B213}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="40">
   <si>
     <t xml:space="preserve">Note: Do not change the column/rows index </t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>801 CH - 3</t>
-  </si>
-  <si>
-    <t>0.70</t>
   </si>
   <si>
     <t>14.40</t>
@@ -278,11 +275,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37698239-2F64-411E-8891-9071AB24FC45}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,53 +615,53 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="11"/>
-      <c r="G1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="18"/>
+      <c r="G1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="19"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="11"/>
       <c r="G2" s="2"/>
       <c r="H2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>37</v>
+        <v>16</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="4"/>
     </row>
@@ -675,14 +672,14 @@
         <v>4</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="4"/>
     </row>
@@ -709,10 +706,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -732,16 +729,16 @@
         <v>287</v>
       </c>
       <c r="F6" s="8">
-        <v>0.66</v>
+        <v>0.26</v>
       </c>
       <c r="G6" s="8">
-        <v>1.26</v>
-      </c>
-      <c r="H6" s="19" t="s">
+        <v>0.47</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -760,17 +757,17 @@
       <c r="E7" s="1">
         <v>300</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.34</v>
-      </c>
-      <c r="H7" s="19" t="s">
+      <c r="F7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -786,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F314061-75BE-4623-93F7-3EBA86CADE07}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,53 +801,53 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="11"/>
-      <c r="G1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="18"/>
+      <c r="G1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="19"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="11"/>
       <c r="G2" s="2"/>
       <c r="H2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>37</v>
+        <v>16</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="4"/>
     </row>
@@ -861,14 +858,14 @@
         <v>4</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="4"/>
     </row>
@@ -895,10 +892,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -918,16 +915,16 @@
         <v>367</v>
       </c>
       <c r="F6" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="1">
-        <v>1.44</v>
-      </c>
-      <c r="H6" s="19" t="s">
+        <v>0.94</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -961,53 +958,53 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="11"/>
-      <c r="G1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="18"/>
+      <c r="G1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="19"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="11"/>
       <c r="G2" s="2"/>
       <c r="H2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>37</v>
+        <v>16</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="4"/>
     </row>
@@ -1018,14 +1015,14 @@
         <v>4</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="4"/>
     </row>
@@ -1052,21 +1049,21 @@
         <v>3</v>
       </c>
       <c r="H5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="b">
         <v>0</v>
@@ -1080,22 +1077,22 @@
       <c r="G6" s="1">
         <v>0.08</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="D7" s="5" t="b">
         <v>0</v>
@@ -1109,11 +1106,11 @@
       <c r="G7" s="1">
         <v>0.16</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1147,53 +1144,53 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="11"/>
-      <c r="G1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="18"/>
+      <c r="G1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="19"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="11"/>
       <c r="G2" s="2"/>
       <c r="H2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>37</v>
+        <v>16</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="4"/>
     </row>
@@ -1204,14 +1201,14 @@
         <v>4</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="4"/>
     </row>
@@ -1238,21 +1235,21 @@
         <v>3</v>
       </c>
       <c r="H5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="b">
         <v>0</v>
@@ -1266,22 +1263,22 @@
       <c r="G6" s="1">
         <v>0.06</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="5" t="b">
         <v>0</v>
@@ -1295,11 +1292,11 @@
       <c r="G7" s="1">
         <v>0.16</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Verify Voltage Drop Calculation on adding devices in Multiple loops.xlsx
+++ b/Test Data/Verify Voltage Drop Calculation on adding devices in Multiple loops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A126EFD-5769-451E-8D51-72CE5697B213}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2437A1-01D2-4920-B4EB-45ABDF354B7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="48">
   <si>
     <t xml:space="preserve">Note: Do not change the column/rows index </t>
   </si>
@@ -138,9 +138,6 @@
     <t>Verify Volt Drop and Volt Drop(worst case) for other loops</t>
   </si>
   <si>
-    <t>NGC -1290</t>
-  </si>
-  <si>
     <t>verifyVoltageDropCalculation</t>
   </si>
   <si>
@@ -154,6 +151,33 @@
   </si>
   <si>
     <t>Volt drop worst case Loading Details Name</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Built-in Loop-A</t>
+  </si>
+  <si>
+    <t>DCUnit</t>
+  </si>
+  <si>
+    <t>Built-in Loop-B</t>
+  </si>
+  <si>
+    <t>Built-in Loop-C</t>
+  </si>
+  <si>
+    <t>Built-in Loop-D</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>NGC-491/T378 OR TC-129</t>
   </si>
 </sst>
 </file>
@@ -184,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +233,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -246,11 +276,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -265,7 +308,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -281,6 +323,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37698239-2F64-411E-8891-9071AB24FC45}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,42 +659,57 @@
     <col min="9" max="9" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="G1" s="19" t="s">
+      <c r="C1" s="10"/>
+      <c r="G1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="19"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="11"/>
+      <c r="B2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10"/>
       <c r="G2" s="2"/>
       <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="20">
+        <v>2</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>34</v>
+      <c r="B3" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
@@ -656,63 +717,84 @@
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>36</v>
+      <c r="E3" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12" t="s">
+      <c r="J3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="20">
+        <v>3</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>37</v>
+      <c r="E4" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="J4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="20">
+        <v>4</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -725,23 +807,23 @@
       <c r="D6" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="8">
-        <v>287</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.26</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.47</v>
-      </c>
-      <c r="H6" s="18" t="s">
+      <c r="E6" s="1">
+        <v>278</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -755,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>300</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H7" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -781,10 +863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F314061-75BE-4623-93F7-3EBA86CADE07}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,42 +881,57 @@
     <col min="9" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="G1" s="19" t="s">
+      <c r="C1" s="10"/>
+      <c r="G1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="19"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="11"/>
+      <c r="B2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10"/>
       <c r="G2" s="2"/>
       <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="20">
+        <v>2</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>34</v>
+      <c r="B3" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
@@ -842,63 +939,84 @@
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>36</v>
+      <c r="E3" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12" t="s">
+      <c r="J3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="20">
+        <v>3</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>37</v>
+      <c r="E4" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="J4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="20">
+        <v>4</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -912,19 +1030,19 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="F6" s="1">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="G6" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="H6" s="18" t="s">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -938,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28155E97-6081-4472-980D-D7F4409FEBF3}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:I7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,42 +1074,57 @@
     <col min="9" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="G1" s="19" t="s">
+      <c r="C1" s="10"/>
+      <c r="G1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="19"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="11"/>
+      <c r="B2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10"/>
       <c r="G2" s="2"/>
       <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="20">
+        <v>2</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>34</v>
+      <c r="B3" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
@@ -999,63 +1132,84 @@
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>36</v>
+      <c r="E3" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12" t="s">
+      <c r="J3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="20">
+        <v>3</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>37</v>
+      <c r="E4" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="J4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="20">
+        <v>4</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -1077,14 +1231,14 @@
       <c r="G6" s="1">
         <v>0.08</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -1098,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>246.1</v>
+        <v>246</v>
       </c>
       <c r="F7" s="1">
         <v>0.08</v>
@@ -1106,11 +1260,11 @@
       <c r="G7" s="1">
         <v>0.16</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1124,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42787A6-869B-492B-AF61-B31A8222204C}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1142,42 +1296,57 @@
     <col min="9" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="G1" s="19" t="s">
+      <c r="C1" s="10"/>
+      <c r="G1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="19"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="11"/>
+      <c r="B2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10"/>
       <c r="G2" s="2"/>
       <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="20">
+        <v>2</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>34</v>
+      <c r="B3" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
@@ -1185,63 +1354,84 @@
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>36</v>
+      <c r="E3" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12" t="s">
+      <c r="J3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="20">
+        <v>3</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>37</v>
+      <c r="E4" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="J4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="20">
+        <v>4</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
@@ -1255,22 +1445,22 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>256.7</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.03</v>
+        <v>257</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="G6" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="H6" s="18" t="s">
+        <v>0.21</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
@@ -1284,19 +1474,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>269.7</v>
+        <v>270</v>
       </c>
       <c r="F7" s="1">
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H7" s="18" t="s">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Verify Voltage Drop Calculation on adding devices in Multiple loops.xlsx
+++ b/Test Data/Verify Voltage Drop Calculation on adding devices in Multiple loops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2437A1-01D2-4920-B4EB-45ABDF354B7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8A45A8-F7E0-4BA5-8750-E70E8DE15ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="47">
   <si>
     <t xml:space="preserve">Note: Do not change the column/rows index </t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>Built-in Loop-D</t>
-  </si>
-  <si>
-    <t>0.10</t>
   </si>
   <si>
     <t>NGC-491/T378 OR TC-129</t>
@@ -320,13 +317,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37698239-2F64-411E-8891-9071AB24FC45}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,17 +664,17 @@
         <v>33</v>
       </c>
       <c r="C1" s="10"/>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="18"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -694,13 +691,13 @@
         <v>18</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="19">
         <v>2</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -709,7 +706,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
@@ -725,10 +722,10 @@
         <v>19</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="19">
         <v>3</v>
       </c>
       <c r="L3" s="17" t="s">
@@ -752,10 +749,10 @@
         <v>20</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="19">
         <v>4</v>
       </c>
       <c r="L4" s="17" t="s">
@@ -790,7 +787,7 @@
       <c r="I5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -837,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>291</v>
-      </c>
-      <c r="F7" s="22">
-        <v>0.28000000000000003</v>
+        <v>279</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.24</v>
       </c>
       <c r="G7" s="1">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>35</v>
@@ -866,7 +863,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -889,17 +886,17 @@
         <v>33</v>
       </c>
       <c r="C1" s="10"/>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="18"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -916,13 +913,13 @@
         <v>18</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="19">
         <v>2</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -931,7 +928,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
@@ -947,10 +944,10 @@
         <v>19</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="19">
         <v>3</v>
       </c>
       <c r="L3" s="17" t="s">
@@ -974,10 +971,10 @@
         <v>20</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="19">
         <v>4</v>
       </c>
       <c r="L4" s="17" t="s">
@@ -1012,7 +1009,7 @@
       <c r="I5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1030,13 +1027,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="F6" s="1">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="G6" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.41</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>35</v>
@@ -1082,17 +1079,17 @@
         <v>33</v>
       </c>
       <c r="C1" s="10"/>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="18"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1109,13 +1106,13 @@
         <v>18</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="19">
         <v>2</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1124,7 +1121,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
@@ -1140,10 +1137,10 @@
         <v>19</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="19">
         <v>3</v>
       </c>
       <c r="L3" s="17" t="s">
@@ -1167,10 +1164,10 @@
         <v>20</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="19">
         <v>4</v>
       </c>
       <c r="L4" s="17" t="s">
@@ -1205,7 +1202,7 @@
       <c r="I5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1280,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42787A6-869B-492B-AF61-B31A8222204C}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1304,17 +1301,17 @@
         <v>33</v>
       </c>
       <c r="C1" s="10"/>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="18"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1331,13 +1328,13 @@
         <v>18</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="19">
         <v>2</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1346,7 +1343,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
@@ -1362,10 +1359,10 @@
         <v>19</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="19">
         <v>3</v>
       </c>
       <c r="L3" s="17" t="s">
@@ -1389,10 +1386,10 @@
         <v>20</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="19">
         <v>4</v>
       </c>
       <c r="L4" s="17" t="s">
@@ -1427,7 +1424,7 @@
       <c r="I5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1447,11 +1444,11 @@
       <c r="E6" s="1">
         <v>257</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>46</v>
+      <c r="F6" s="21">
+        <v>0.03</v>
       </c>
       <c r="G6" s="1">
-        <v>0.21</v>
+        <v>0.06</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>35</v>
@@ -1477,10 +1474,10 @@
         <v>270</v>
       </c>
       <c r="F7" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G7" s="1">
         <v>0.14000000000000001</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.28999999999999998</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>35</v>
